--- a/biology/Médecine/Épithélium_malpighien/Épithélium_malpighien.xlsx
+++ b/biology/Médecine/Épithélium_malpighien/Épithélium_malpighien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89pith%C3%A9lium_malpighien</t>
+          <t>Épithélium_malpighien</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un épithélium malpighien est un épithélium pavimenteux stratifié.
 On peut diviser ces tissus en deux types, selon qu'ils sont kératinisés ou non.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89pith%C3%A9lium_malpighien</t>
+          <t>Épithélium_malpighien</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Épithélium malpighien kératinisé
-Chez l’Homme, il est uniquement rencontré au niveau de l'épiderme.
+          <t>Épithélium malpighien kératinisé</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez l’Homme, il est uniquement rencontré au niveau de l'épiderme.
 Il comporte, de façon caractéristique, plusieurs assises (ou couches) cellulaires :
 la couche basale, faite d'une assise de cellules cubiques dotées d'un noyau sphérique avec des mitoses assurant le renouvellement tissulaire ;
 la couche des cellules à épines, faite de plusieurs assises de cellules polygonales (géométriques, à l'aspect plus ou moins rectangulaire) qui semblent réunies en microscopie optique par des ponts intercellulaires (épines). Cet aspect correspond en fait en microscopie électronique à la présence de nombreux desmosomes ou nodules de Bizzozero. Certaines cellules sont en division mitotique ;
@@ -524,8 +541,43 @@
 la couche claire: cellules qui tendent à disparaitre et ont de la kératine
 la couche cornée, constituée de plusieurs assises de cellules aplaties chargées de kératine molle. Ces cellules sont mortes, et leurs noyaux disparaissent par pycnose. Elles s'éliminent en surface par desquamation. Il est possible de décrire deux zones dans la couche cornée : couche compacte et couche desquamante.
 L'épiderme joue un rôle essentiel de protection de l'organisme. La couche basale et la couche des cellules à épines sont le siège de divisions mitotiques et ont une valeur germinative. Elles sont souvent appelées « corps muqueux de Malpighi » (bien que certains auteurs réservent ce nom à l'ensemble des trois couches profondes de l'épiderme).
-Épithélium malpighien non kératinisé
-Chez l'être humain, il est notamment rencontré au niveau de l'œsophage, de la cavité buccale, de la cavité vaginale (organes génitaux externes en général), et du canal anal. L'épithélium de la cornée est quant à lui pavimenteux simple mais pas malpighien car il ne comporte pas de papilles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Épithélium_malpighien</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89pith%C3%A9lium_malpighien</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Types</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Épithélium malpighien non kératinisé</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez l'être humain, il est notamment rencontré au niveau de l'œsophage, de la cavité buccale, de la cavité vaginale (organes génitaux externes en général), et du canal anal. L'épithélium de la cornée est quant à lui pavimenteux simple mais pas malpighien car il ne comporte pas de papilles.
 Il comporte :
 une couche basale de cellules cubiques, avec des mitoses ;
 une couche para-basale de cellules polyédriques (plus ou moins hexagonales) ;
@@ -536,31 +588,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>%C3%89pith%C3%A9lium_malpighien</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Épithélium_malpighien</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/%C3%89pith%C3%A9lium_malpighien</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Pathologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les épithéliums malpighiens peuvent donner naissance au carcinome épidermoïde, in situ ou invasif. 
 </t>
